--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value334.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value334.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6404648279749657</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>1.010200179377122</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>2.857918846285823</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.957604541739981</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.411599724078531</v>
+        <v>1.040523648262024</v>
       </c>
     </row>
   </sheetData>
